--- a/python/demo/Finnhub_rtd_demo.xlsx
+++ b/python/demo/Finnhub_rtd_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitHub\ExcelRTD\python\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF2B47-5AB0-406A-AE7B-FD94B750F614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B00BE-0239-4119-AD1F-EA27FBFE0D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="1545" windowWidth="15480" windowHeight="12675" xr2:uid="{E4C61899-80CC-4189-A1D7-D7852CB17CA7}"/>
+    <workbookView xWindow="7245" yWindow="2475" windowWidth="21600" windowHeight="11250" xr2:uid="{E4C61899-80CC-4189-A1D7-D7852CB17CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Finnhub RTD Demo" sheetId="1" r:id="rId1"/>
@@ -153,148 +153,182 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="finnhub">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>BINANCE:ETHBTC</stp>
         <stp>last_update_time</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>FB</stp>
         <stp>volume</stp>
         <tr r="C10" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>BINANCE:BTCUSDT</stp>
         <stp>last_update_time</stp>
         <tr r="D4" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>volume</stp>
         <tr r="C6" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>last_update_time</stp>
         <tr r="D6" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>volume</stp>
         <tr r="C9" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>volume</stp>
         <tr r="C7" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>volume</stp>
         <tr r="C8" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>last_update_time</stp>
         <tr r="D9" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>last_update_time</stp>
         <tr r="D7" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>BINANCE:BTCUSDT</stp>
         <stp>last_price</stp>
         <tr r="B4" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last_update_time</stp>
         <tr r="D8" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>BINANCE:ETHBTC</stp>
         <stp>last_price</stp>
         <tr r="B5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>last_price</stp>
         <tr r="B6" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last_price</stp>
         <tr r="B8" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>last_price</stp>
         <tr r="B7" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>last_price</stp>
         <tr r="B9" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>FB</stp>
         <stp>last_update_time</stp>
         <tr r="D10" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>BINANCE:ETHBTC</stp>
         <stp>volume</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>BINANCE:BTCUSDT</stp>
         <stp>volume</stp>
         <tr r="C4" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+    </main>
+    <main first="finnhub">
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>FB</stp>
         <stp>last_price</stp>
@@ -624,7 +658,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,8 +672,8 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="str">
-        <f>IF(A1="","Copy paste your Finnhub token to A1 cell",RTD("finnhub","","set_token",A1))</f>
-        <v>Copy paste your Finnhub token to A1 cell</v>
+        <f>IF(A1="","&lt;--Copy paste your Finnhub API key to A1 cell. Go to https://finnhub.io/dashboard to get your API key.",RTD("finnhub","","set_token",A1))</f>
+        <v>&lt;--Copy paste your Finnhub API key to A1 cell. Go to https://finnhub.io/dashboard to get your API key.</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -662,15 +696,15 @@
       </c>
       <c r="B4" s="1">
         <f>RTD("finnhub","",A4,"last_price")</f>
-        <v>9163.85</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>RTD("finnhub","",A4,"volume")</f>
-        <v>1.0683E-2</v>
-      </c>
-      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <f>RTD("finnhub","",A4,"last_update_time")</f>
-        <v>2020-07-17 17:16:27.285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,15 +713,15 @@
       </c>
       <c r="B5" s="2">
         <f>RTD("finnhub","",A5,"last_price")</f>
-        <v>2.5440000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <f>RTD("finnhub","",A5,"volume")</f>
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <f>RTD("finnhub","",A5,"last_update_time")</f>
-        <v>2020-07-17 17:16:28.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,15 +730,15 @@
       </c>
       <c r="B6" s="1">
         <f>RTD("finnhub","",A6,"last_price")</f>
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>RTD("finnhub","",A6,"volume")</f>
-        <v>50</v>
-      </c>
-      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <f>RTD("finnhub","",A6,"last_update_time")</f>
-        <v>2020-07-17 16:55:33.935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,15 +747,15 @@
       </c>
       <c r="B7" s="1">
         <f>RTD("finnhub","",A7,"last_price")</f>
-        <v>385.45</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>RTD("finnhub","",A7,"volume")</f>
-        <v>10</v>
-      </c>
-      <c r="D7" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <f>RTD("finnhub","",A7,"last_update_time")</f>
-        <v>2020-07-17 16:55:36.587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/python/demo/Finnhub_rtd_demo.xlsx
+++ b/python/demo/Finnhub_rtd_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitHub\ExcelRTD\python\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B00BE-0239-4119-AD1F-EA27FBFE0D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB880278-4DB6-4295-AC61-A9CE371B1D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="2475" windowWidth="21600" windowHeight="11250" xr2:uid="{E4C61899-80CC-4189-A1D7-D7852CB17CA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4C61899-80CC-4189-A1D7-D7852CB17CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Finnhub RTD Demo" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>BINANCE:BTCUSDT</t>
   </si>
@@ -67,16 +67,26 @@
   </si>
   <si>
     <t>FB</t>
+  </si>
+  <si>
+    <t>BINANCE:ETHUSDT</t>
+  </si>
+  <si>
+    <t>BINANCE:LTCBTC</t>
+  </si>
+  <si>
+    <t>OANDA:XAU_USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -121,13 +131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,186 +164,215 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="finnhub">
-      <tp>
-        <v>0</v>
+      <tp t="s">
+        <v>2020-08-01 17:53:57.374</v>
+        <stp/>
+        <stp>BINANCE:LTCBTC</stp>
+        <stp>last_update_time</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2020-08-01 17:53:56.144</v>
         <stp/>
         <stp>BINANCE:ETHBTC</stp>
         <stp>last_update_time</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
-      <tp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>FB</stp>
         <stp>volume</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2020-08-01 17:53:57.015</v>
+        <stp/>
+        <stp>BINANCE:ETHUSDT</stp>
+        <stp>last_update_time</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2020-08-01 17:53:57.824</v>
         <stp/>
         <stp>BINANCE:BTCUSDT</stp>
         <stp>last_update_time</stp>
         <tr r="D4" s="1"/>
       </tp>
-    </main>
-    <main first="finnhub">
-      <tp>
-        <v>0</v>
+      <tp t="s">
+        <v>N/A</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>volume</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
-      <tp>
-        <v>0</v>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>N/A</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>last_update_time</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
-      <tp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>volume</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
-      <tp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>volume</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>volume</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
-      <tp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>last_update_time</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
-      <tp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>last_update_time</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
+        <tr r="D10" s="1"/>
+      </tp>
       <tp>
-        <v>0</v>
+        <v>5.1919999999999996E-3</v>
+        <stp/>
+        <stp>BINANCE:LTCBTC</stp>
+        <stp>last_price</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp>
+        <v>11793.01</v>
         <stp/>
         <stp>BINANCE:BTCUSDT</stp>
         <stp>last_price</stp>
         <tr r="B4" s="1"/>
       </tp>
-    </main>
-    <main first="finnhub">
       <tp>
+        <v>388.18</v>
+        <stp/>
+        <stp>BINANCE:ETHUSDT</stp>
+        <stp>last_price</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last_update_time</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
+        <tr r="D11" s="1"/>
+      </tp>
       <tp>
-        <v>0</v>
+        <v>3.2918000000000003E-2</v>
         <stp/>
         <stp>BINANCE:ETHBTC</stp>
         <stp>last_price</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
+        <tr r="B6" s="1"/>
+      </tp>
       <tp>
-        <v>0</v>
+        <v>1975.962</v>
+        <stp/>
+        <stp>OANDA:XAU_USD</stp>
+        <stp>last_price</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>N/A</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>last_price</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
-      <tp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last_price</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>last_price</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
-      <tp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>last_price</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
+        <tr r="B12" s="1"/>
+      </tp>
       <tp>
+        <v>2.04</v>
+        <stp/>
+        <stp>BINANCE:LTCBTC</stp>
+        <stp>volume</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>FB</stp>
         <stp>last_update_time</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
+        <tr r="D13" s="1"/>
+      </tp>
       <tp>
-        <v>0</v>
+        <v>1.2E-2</v>
         <stp/>
         <stp>BINANCE:ETHBTC</stp>
         <stp>volume</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="finnhub">
+        <tr r="C6" s="1"/>
+      </tp>
       <tp>
         <v>0</v>
+        <stp/>
+        <stp>OANDA:XAU_USD</stp>
+        <stp>volume</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2020-07-31 13:59:56.081</v>
+        <stp/>
+        <stp>OANDA:XAU_USD</stp>
+        <stp>last_update_time</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1380000000000001E-3</v>
         <stp/>
         <stp>BINANCE:BTCUSDT</stp>
         <stp>volume</stp>
         <tr r="C4" s="1"/>
       </tp>
-    </main>
-    <main first="finnhub">
       <tp>
+        <v>1.0133799999999999</v>
+        <stp/>
+        <stp>BINANCE:ETHUSDT</stp>
+        <stp>volume</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="b">
         <v>0</v>
         <stp/>
         <stp>FB</stp>
         <stp>last_price</stp>
-        <tr r="B10" s="1"/>
+        <tr r="B13" s="1"/>
       </tp>
     </main>
   </volType>
@@ -340,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AFCDF87-6B2A-427F-B582-1D34E3CD85B9}" name="Table1" displayName="Table1" ref="A3:D10" totalsRowShown="0">
-  <autoFilter ref="A3:D10" xr:uid="{C9F4B2F9-7C14-44D5-844E-E945C79A6A63}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AFCDF87-6B2A-427F-B582-1D34E3CD85B9}" name="Table1" displayName="Table1" ref="A3:D13" totalsRowShown="0">
+  <autoFilter ref="A3:D13" xr:uid="{C9F4B2F9-7C14-44D5-844E-E945C79A6A63}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9CA9D36B-4654-4F68-BA7B-1809CEBC3766}" name="Ticker"/>
     <tableColumn id="2" xr3:uid="{491181F1-1B3D-4777-9783-5303BCFB0BD6}" name="Price" dataDxfId="0">
@@ -655,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BDF274-F36A-4328-B1D7-84FE5A902FA1}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,117 +736,168 @@
       </c>
       <c r="B4" s="1">
         <f>RTD("finnhub","",A4,"last_price")</f>
-        <v>0</v>
+        <v>11793.01</v>
       </c>
       <c r="C4">
         <f>RTD("finnhub","",A4,"volume")</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
+        <v>2.1380000000000001E-3</v>
+      </c>
+      <c r="D4" t="str">
         <f>RTD("finnhub","",A4,"last_update_time")</f>
-        <v>0</v>
+        <v>2020-08-01 17:53:57.824</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <f>RTD("finnhub","",A5,"last_price")</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
+        <v>5.1919999999999996E-3</v>
+      </c>
+      <c r="C5">
         <f>RTD("finnhub","",A5,"volume")</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
+        <v>2.04</v>
+      </c>
+      <c r="D5" t="str">
         <f>RTD("finnhub","",A5,"last_update_time")</f>
-        <v>0</v>
+        <v>2020-08-01 17:53:57.374</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <f>RTD("finnhub","",A6,"last_price")</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
+        <v>3.2918000000000003E-2</v>
+      </c>
+      <c r="C6" s="3">
         <f>RTD("finnhub","",A6,"volume")</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D6" t="str">
         <f>RTD("finnhub","",A6,"last_update_time")</f>
-        <v>0</v>
+        <v>2020-08-01 17:53:56.144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <f>RTD("finnhub","",A7,"last_price")</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
+        <v>388.18</v>
+      </c>
+      <c r="C7" s="6">
         <f>RTD("finnhub","",A7,"volume")</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
+        <v>1.0133799999999999</v>
+      </c>
+      <c r="D7" t="str">
         <f>RTD("finnhub","",A7,"last_update_time")</f>
-        <v>0</v>
+        <v>2020-08-01 17:53:57.015</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <f>RTD("finnhub","",A8,"last_price")</f>
-        <v>0</v>
-      </c>
-      <c r="C8">
+        <v>1975.962</v>
+      </c>
+      <c r="C8" s="6">
         <f>RTD("finnhub","",A8,"volume")</f>
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="str">
         <f>RTD("finnhub","",A8,"last_update_time")</f>
-        <v>0</v>
+        <v>2020-07-31 13:59:56.081</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="str">
         <f>RTD("finnhub","",A9,"last_price")</f>
-        <v>0</v>
-      </c>
-      <c r="C9">
+        <v>N/A</v>
+      </c>
+      <c r="C9" t="str">
         <f>RTD("finnhub","",A9,"volume")</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
+        <v>N/A</v>
+      </c>
+      <c r="D9" t="str">
         <f>RTD("finnhub","",A9,"last_update_time")</f>
-        <v>0</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="e">
+        <f>RTD("finnhub","",A10,"last_price")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C10" t="e">
+        <f>RTD("finnhub","",A10,"volume")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" t="e">
+        <f>RTD("finnhub","",A10,"last_update_time")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="e">
+        <f>RTD("finnhub","",A11,"last_price")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" t="e">
+        <f>RTD("finnhub","",A11,"volume")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="e">
+        <f>RTD("finnhub","",A11,"last_update_time")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="e">
+        <f>RTD("finnhub","",A12,"last_price")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C12" t="e">
+        <f>RTD("finnhub","",A12,"volume")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="e">
+        <f>RTD("finnhub","",A12,"last_update_time")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <f>RTD("finnhub","",A10,"last_price")</f>
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f>RTD("finnhub","",A10,"volume")</f>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f>RTD("finnhub","",A10,"last_update_time")</f>
-        <v>0</v>
+      <c r="B13" s="1" t="e">
+        <f>RTD("finnhub","",A13,"last_price")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" t="e">
+        <f>RTD("finnhub","",A13,"volume")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" t="e">
+        <f>RTD("finnhub","",A13,"last_update_time")</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
